--- a/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_angles.xlsx
+++ b/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_angles.xlsx
@@ -507,28 +507,28 @@
         <v>3.141592653589793</v>
       </c>
       <c r="D2" t="n">
-        <v>12.89366426006936</v>
+        <v>11.30496423727425</v>
       </c>
       <c r="E2" t="n">
-        <v>10.45828471685414</v>
+        <v>9.693645975000074</v>
       </c>
       <c r="F2" t="n">
-        <v>10.25060767435501</v>
+        <v>9.952231355971705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8165741196498518</v>
+        <v>0.8846833092455777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8691794765935941</v>
+        <v>0.9117462911883898</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8757820763908317</v>
+        <v>0.9031242887727851</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04631030448743653</v>
+        <v>0.0500507856158862</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04649540829296019</v>
+        <v>0.05013793636612787</v>
       </c>
       <c r="L2" t="n">
         <v>0.02752463956181446</v>
@@ -548,28 +548,28 @@
         <v>3.054326190990076</v>
       </c>
       <c r="D3" t="n">
-        <v>13.15239797935159</v>
+        <v>12.78481725089941</v>
       </c>
       <c r="E3" t="n">
-        <v>11.79480386133603</v>
+        <v>14.30913495074794</v>
       </c>
       <c r="F3" t="n">
-        <v>11.92862009931326</v>
+        <v>14.94604687966615</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8236327450501808</v>
+        <v>0.8565449838378798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8541913897786249</v>
+        <v>0.8140347289850438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8558997254935463</v>
+        <v>0.7972911685720117</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05325388264845335</v>
+        <v>0.06335491568897986</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05136603580659569</v>
+        <v>0.06142564146641332</v>
       </c>
       <c r="L3" t="n">
         <v>0.03249815973632392</v>
@@ -589,28 +589,28 @@
         <v>2.96705972839036</v>
       </c>
       <c r="D4" t="n">
-        <v>11.96107602423989</v>
+        <v>9.602421720331149</v>
       </c>
       <c r="E4" t="n">
-        <v>9.424273852283845</v>
+        <v>9.159121150770599</v>
       </c>
       <c r="F4" t="n">
-        <v>10.38920048589058</v>
+        <v>10.56290713984404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8415647763093624</v>
+        <v>0.9036633890370249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.905150835414573</v>
+        <v>0.9106889959095744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.888963780463496</v>
+        <v>0.8761321812926425</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05718122529326793</v>
+        <v>0.06299742472032639</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05148174670660417</v>
+        <v>0.05677346736150046</v>
       </c>
       <c r="L4" t="n">
         <v>0.02884924953110662</v>
@@ -630,28 +630,28 @@
         <v>2.879793265790644</v>
       </c>
       <c r="D5" t="n">
-        <v>10.05983919529297</v>
+        <v>6.863903978569907</v>
       </c>
       <c r="E5" t="n">
-        <v>6.890855749635288</v>
+        <v>5.84707629014955</v>
       </c>
       <c r="F5" t="n">
-        <v>7.740389452184425</v>
+        <v>7.409190442407003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8444904382282081</v>
+        <v>0.9344094419013148</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9247107255178256</v>
+        <v>0.9495400726863613</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9116439643814076</v>
+        <v>0.9147074539435186</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05973391944441252</v>
+        <v>0.05861352548595531</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05249531257158171</v>
+        <v>0.05062293871678556</v>
       </c>
       <c r="L5" t="n">
         <v>0.02002220722729111</v>
@@ -671,28 +671,28 @@
         <v>2.792526803190927</v>
       </c>
       <c r="D6" t="n">
-        <v>7.767461705397119</v>
+        <v>5.697618143988722</v>
       </c>
       <c r="E6" t="n">
-        <v>5.94500084746215</v>
+        <v>5.773467107258942</v>
       </c>
       <c r="F6" t="n">
-        <v>6.523847904105682</v>
+        <v>7.067455042078586</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8913012999248096</v>
+        <v>0.9543151240410631</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9451574435518972</v>
+        <v>0.9630364820613468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9407423492911127</v>
+        <v>0.940419628955304</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07063676470794544</v>
+        <v>0.07782168376668323</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06141956020585482</v>
+        <v>0.06765817847838135</v>
       </c>
       <c r="L6" t="n">
         <v>0.03424403977493327</v>
@@ -712,28 +712,28 @@
         <v>2.705260340591211</v>
       </c>
       <c r="D7" t="n">
-        <v>7.14670242307025</v>
+        <v>6.957295424789524</v>
       </c>
       <c r="E7" t="n">
-        <v>8.168475487489905</v>
+        <v>9.735977737355809</v>
       </c>
       <c r="F7" t="n">
-        <v>8.707761547442004</v>
+        <v>10.77955894470992</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9341613453368164</v>
+        <v>0.9555098381216418</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9243820630293905</v>
+        <v>0.9163359124135972</v>
       </c>
       <c r="I7" t="n">
-        <v>0.919498447866134</v>
+        <v>0.8991169125253391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08071368421364035</v>
+        <v>0.0932603274434162</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07250457150727918</v>
+        <v>0.08415611428928903</v>
       </c>
       <c r="L7" t="n">
         <v>0.05817047858122217</v>
@@ -753,28 +753,28 @@
         <v>2.617993877991494</v>
       </c>
       <c r="D8" t="n">
-        <v>8.249479193585909</v>
+        <v>8.890795725324548</v>
       </c>
       <c r="E8" t="n">
-        <v>11.32198617322069</v>
+        <v>12.2101748245581</v>
       </c>
       <c r="F8" t="n">
-        <v>11.17045787988631</v>
+        <v>12.38123305038009</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9322516882535724</v>
+        <v>0.9375994656480292</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8760934781320803</v>
+        <v>0.8768451867239324</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8879726126978092</v>
+        <v>0.8770208777914483</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08174750211955732</v>
+        <v>0.08417479975261942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07872675401715674</v>
+        <v>0.08089086644085153</v>
       </c>
       <c r="L8" t="n">
         <v>0.03717275372988672</v>
@@ -794,28 +794,28 @@
         <v>2.530727415391778</v>
       </c>
       <c r="D9" t="n">
-        <v>7.600015750771286</v>
+        <v>7.000079856445654</v>
       </c>
       <c r="E9" t="n">
-        <v>10.49366038242636</v>
+        <v>9.970294078289976</v>
       </c>
       <c r="F9" t="n">
-        <v>11.14663412738595</v>
+        <v>10.93911596746243</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9487295267374574</v>
+        <v>0.960339252877467</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9101697160737102</v>
+        <v>0.9241298656516045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9023246649159219</v>
+        <v>0.9059003954059373</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08668229935133419</v>
+        <v>0.09152837560675804</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08091378662353618</v>
+        <v>0.08570690152873789</v>
       </c>
       <c r="L9" t="n">
         <v>0.04375121925641724</v>
@@ -835,28 +835,28 @@
         <v>2.443460952792061</v>
       </c>
       <c r="D10" t="n">
-        <v>9.629272178293208</v>
+        <v>10.84677292102081</v>
       </c>
       <c r="E10" t="n">
-        <v>12.86692146377976</v>
+        <v>15.08973308177175</v>
       </c>
       <c r="F10" t="n">
-        <v>14.29514036872411</v>
+        <v>16.34364780620178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9347524246081196</v>
+        <v>0.9080183766520329</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8834606496493637</v>
+        <v>0.8324992624622357</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8506983380841447</v>
+        <v>0.8012924343615309</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08590929161654028</v>
+        <v>0.09589658051906277</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07731767217412992</v>
+        <v>0.08642938688294013</v>
       </c>
       <c r="L10" t="n">
         <v>0.02839826876587544</v>
@@ -876,28 +876,28 @@
         <v>2.356194490192345</v>
       </c>
       <c r="D11" t="n">
-        <v>19.61675037004753</v>
+        <v>18.51336975220894</v>
       </c>
       <c r="E11" t="n">
-        <v>21.38724338339498</v>
+        <v>20.75807703037315</v>
       </c>
       <c r="F11" t="n">
-        <v>22.54524781140053</v>
+        <v>21.73010940841792</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7202807646165793</v>
+        <v>0.7296798230449097</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7010877898985606</v>
+        <v>0.7025387577491031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6771724169373206</v>
+        <v>0.6837865753411482</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07872585285859836</v>
+        <v>0.08358506137690128</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07111645431711205</v>
+        <v>0.07529702202736732</v>
       </c>
       <c r="L11" t="n">
         <v>0.03764754072106553</v>
@@ -917,28 +917,28 @@
         <v>2.268928027592628</v>
       </c>
       <c r="D12" t="n">
-        <v>22.58163330069007</v>
+        <v>19.49370459636784</v>
       </c>
       <c r="E12" t="n">
-        <v>26.39878364270126</v>
+        <v>21.74650874964538</v>
       </c>
       <c r="F12" t="n">
-        <v>28.61518707522605</v>
+        <v>23.69857519213809</v>
       </c>
       <c r="G12" t="n">
-        <v>0.666887428192997</v>
+        <v>0.73789359826334</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5662046296276776</v>
+        <v>0.6871043854200388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5131145478177722</v>
+        <v>0.6429959576398016</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07687872729452397</v>
+        <v>0.0786599200459467</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06747147210145739</v>
+        <v>0.06849076015611318</v>
       </c>
       <c r="L12" t="n">
         <v>0.04838998444416875</v>
@@ -958,28 +958,28 @@
         <v>2.181661564992912</v>
       </c>
       <c r="D13" t="n">
-        <v>29.88570722978579</v>
+        <v>33.30739672865366</v>
       </c>
       <c r="E13" t="n">
-        <v>28.8861358329855</v>
+        <v>26.39808042660163</v>
       </c>
       <c r="F13" t="n">
-        <v>32.38820011161307</v>
+        <v>29.77574357567458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4546362617341637</v>
+        <v>0.3322786486820568</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5129638698498404</v>
+        <v>0.5498013345005017</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4167407936281101</v>
+        <v>0.459599857444644</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06653923583407112</v>
+        <v>0.06427017092510315</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05613297891140522</v>
+        <v>0.05312084503356674</v>
       </c>
       <c r="L13" t="n">
         <v>0.003320202657575599</v>
@@ -999,28 +999,28 @@
         <v>2.094395102393195</v>
       </c>
       <c r="D14" t="n">
-        <v>31.34466725126522</v>
+        <v>33.68166047149685</v>
       </c>
       <c r="E14" t="n">
-        <v>27.20900313848754</v>
+        <v>20.52449876708964</v>
       </c>
       <c r="F14" t="n">
-        <v>28.73444627316013</v>
+        <v>22.26932438265368</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4277659829631513</v>
+        <v>0.3218460257121066</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5756075612639963</v>
+        <v>0.6915459312610679</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5123275241044049</v>
+        <v>0.6562015573222658</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0541624228038495</v>
+        <v>0.04836972241823189</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04792096066950356</v>
+        <v>0.0411983353152131</v>
       </c>
       <c r="L14" t="n">
         <v>0.01697565412231456</v>
@@ -1040,28 +1040,28 @@
         <v>2.007128639793479</v>
       </c>
       <c r="D15" t="n">
-        <v>31.0969006276176</v>
+        <v>27.11754876997694</v>
       </c>
       <c r="E15" t="n">
-        <v>26.3808281444721</v>
+        <v>19.16055771816293</v>
       </c>
       <c r="F15" t="n">
-        <v>29.82191816530991</v>
+        <v>22.2254642753284</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4530604182059265</v>
+        <v>0.5450436191804084</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5886233973888699</v>
+        <v>0.7667835268109412</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4974521311834995</v>
+        <v>0.6911428195141872</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05361615811927872</v>
+        <v>0.05213705300053691</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04655847051241523</v>
+        <v>0.04510613548763164</v>
       </c>
       <c r="L15" t="n">
         <v>0.0184460223096851</v>
@@ -1081,28 +1081,28 @@
         <v>1.919862177193763</v>
       </c>
       <c r="D16" t="n">
-        <v>37.06821089195632</v>
+        <v>35.26502504734431</v>
       </c>
       <c r="E16" t="n">
-        <v>31.08436591622449</v>
+        <v>28.37224031868036</v>
       </c>
       <c r="F16" t="n">
-        <v>35.68702234036993</v>
+        <v>33.14229349154868</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2709586272654747</v>
+        <v>0.3178870836207031</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4559039941710097</v>
+        <v>0.541752268566698</v>
       </c>
       <c r="I16" t="n">
-        <v>0.314388432376247</v>
+        <v>0.3952294568069521</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05502873588966924</v>
+        <v>0.05780278002346515</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04783160510894915</v>
+        <v>0.0505639571393325</v>
       </c>
       <c r="L16" t="n">
         <v>0.0004789658786642069</v>
@@ -1122,28 +1122,28 @@
         <v>1.832595714594046</v>
       </c>
       <c r="D17" t="n">
-        <v>46.08111160411947</v>
+        <v>46.5160188950016</v>
       </c>
       <c r="E17" t="n">
-        <v>37.87387448198064</v>
+        <v>35.09836523610634</v>
       </c>
       <c r="F17" t="n">
-        <v>42.35861188134556</v>
+        <v>39.8939623154518</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03415558786206112</v>
+        <v>-0.04819115870311959</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2455132878712993</v>
+        <v>0.3324838872827868</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1009990492976265</v>
+        <v>0.1958321948411756</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05198646972349337</v>
+        <v>0.05008222109045941</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04667379779296772</v>
+        <v>0.04496674624020277</v>
       </c>
       <c r="L17" t="n">
         <v>-0.003971793896810767</v>
@@ -1163,28 +1163,28 @@
         <v>1.74532925199433</v>
       </c>
       <c r="D18" t="n">
-        <v>54.55249211347972</v>
+        <v>52.03262484902198</v>
       </c>
       <c r="E18" t="n">
-        <v>45.19133012110272</v>
+        <v>41.86144918140052</v>
       </c>
       <c r="F18" t="n">
-        <v>47.98514625833646</v>
+        <v>45.20058111058456</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3145670770016089</v>
+        <v>-0.2237622834797509</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01470335706083898</v>
+        <v>0.1100530270396179</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06707465861067879</v>
+        <v>0.04500107766238044</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04920648743049829</v>
+        <v>0.04935584455853024</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04669358253909926</v>
+        <v>0.04670335141888758</v>
       </c>
       <c r="L18" t="n">
         <v>-0.01041711615785256</v>
@@ -1204,28 +1204,28 @@
         <v>1.658062789394613</v>
       </c>
       <c r="D19" t="n">
-        <v>63.01396129751679</v>
+        <v>58.9836771699445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.65072891555781</v>
+        <v>53.02247993992499</v>
       </c>
       <c r="F19" t="n">
-        <v>53.37597679000874</v>
+        <v>53.82434053164121</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5668832625414676</v>
+        <v>-0.4404802121397951</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2290636279838335</v>
+        <v>-0.2485412444835834</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.229886442405059</v>
+        <v>-0.2088095963849721</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04749213272272778</v>
+        <v>0.05214085173027286</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04790322667081003</v>
+        <v>0.05228328108796491</v>
       </c>
       <c r="L19" t="n">
         <v>-0.02271913125863783</v>
@@ -1245,28 +1245,28 @@
         <v>1.570796326794897</v>
       </c>
       <c r="D20" t="n">
-        <v>73.0256100254775</v>
+        <v>70.95092334887644</v>
       </c>
       <c r="E20" t="n">
-        <v>61.73096663415627</v>
+        <v>59.6778150346598</v>
       </c>
       <c r="F20" t="n">
-        <v>57.74135508340047</v>
+        <v>57.67874565710046</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8055174650835287</v>
+        <v>-0.7621386466187491</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3521375906410711</v>
+        <v>-0.4572199314902695</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.3391231977657755</v>
+        <v>-0.326225050484118</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0444899283550571</v>
+        <v>0.0469814178661729</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0474082840627697</v>
+        <v>0.04894791559866595</v>
       </c>
       <c r="L20" t="n">
         <v>-0.03606414687631137</v>
@@ -1286,28 +1286,28 @@
         <v>1.48352986419518</v>
       </c>
       <c r="D21" t="n">
-        <v>81.48766802018083</v>
+        <v>79.20309051129419</v>
       </c>
       <c r="E21" t="n">
-        <v>64.48630573445836</v>
+        <v>55.41763168812325</v>
       </c>
       <c r="F21" t="n">
-        <v>60.43546094753689</v>
+        <v>53.45583924756359</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.9427650053247002</v>
+        <v>-0.9117859568481208</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3537355882767804</v>
+        <v>-0.3103313757024352</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3689576567252553</v>
+        <v>-0.21907941247048</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04219055436354144</v>
+        <v>0.03937239041250536</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04501166481550503</v>
+        <v>0.04083310479862164</v>
       </c>
       <c r="L21" t="n">
         <v>-0.01850829279575725</v>
@@ -1327,28 +1327,28 @@
         <v>1.396263401595464</v>
       </c>
       <c r="D22" t="n">
-        <v>83.23055786632773</v>
+        <v>77.46779156560143</v>
       </c>
       <c r="E22" t="n">
-        <v>61.49016087915838</v>
+        <v>50.62268688364427</v>
       </c>
       <c r="F22" t="n">
-        <v>60.31096592592493</v>
+        <v>50.08580642385478</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.961626208568652</v>
+        <v>-0.8667596340376109</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2849806197876583</v>
+        <v>-0.1733046182669117</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2815024057153125</v>
+        <v>-0.1408687328741317</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04142780591740123</v>
+        <v>0.03779954204762667</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04225905526212712</v>
+        <v>0.03826373939423463</v>
       </c>
       <c r="L22" t="n">
         <v>-0.01970129085480631</v>
@@ -1368,28 +1368,28 @@
         <v>1.308996938995747</v>
       </c>
       <c r="D23" t="n">
-        <v>80.80886390271644</v>
+        <v>75.12345774501004</v>
       </c>
       <c r="E23" t="n">
-        <v>59.05551599453378</v>
+        <v>52.51192672139933</v>
       </c>
       <c r="F23" t="n">
-        <v>57.45906251711432</v>
+        <v>51.5318841132981</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.9255711669582993</v>
+        <v>-0.7909844731032604</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2125552996477514</v>
+        <v>-0.2302045638540772</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2023014498894581</v>
+        <v>-0.2012642371566624</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04041384258882062</v>
+        <v>0.03914079440819005</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04165603539659615</v>
+        <v>0.04020522567294746</v>
       </c>
       <c r="L23" t="n">
         <v>-0.01677957996063064</v>
@@ -1409,28 +1409,28 @@
         <v>1.221730476396031</v>
       </c>
       <c r="D24" t="n">
-        <v>76.47457666708974</v>
+        <v>72.7302954856456</v>
       </c>
       <c r="E24" t="n">
-        <v>57.47828970156142</v>
+        <v>48.67326095198867</v>
       </c>
       <c r="F24" t="n">
-        <v>51.43956874380815</v>
+        <v>44.75858897002568</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.8670243315125505</v>
+        <v>-0.7361246919913947</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1459495189263605</v>
+        <v>-0.1102109022845129</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1282377006185563</v>
+        <v>-0.01028266129998697</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03868158240574585</v>
+        <v>0.03560954985099377</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04337309569673422</v>
+        <v>0.03899764876350511</v>
       </c>
       <c r="L24" t="n">
         <v>-0.006936672219705672</v>
@@ -1450,28 +1450,28 @@
         <v>1.134464013796314</v>
       </c>
       <c r="D25" t="n">
-        <v>70.4801637530859</v>
+        <v>70.73026321284554</v>
       </c>
       <c r="E25" t="n">
-        <v>56.59790999103485</v>
+        <v>49.16604037767632</v>
       </c>
       <c r="F25" t="n">
-        <v>48.89073137132166</v>
+        <v>43.23980666474969</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.7442848862150366</v>
+        <v>-0.6941000465426596</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1668657403249216</v>
+        <v>-0.09175676763659918</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.06324211888535838</v>
+        <v>0.06008339125089309</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04028784826695967</v>
+        <v>0.03633560289020571</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04666184733370465</v>
+        <v>0.04135527848115099</v>
       </c>
       <c r="L25" t="n">
         <v>-0.02112900003143741</v>
@@ -1491,28 +1491,28 @@
         <v>1.047197551196598</v>
       </c>
       <c r="D26" t="n">
-        <v>63.10062309898365</v>
+        <v>60.14456097918075</v>
       </c>
       <c r="E26" t="n">
-        <v>55.96386766098824</v>
+        <v>52.81006416092255</v>
       </c>
       <c r="F26" t="n">
-        <v>48.54742855171602</v>
+        <v>46.03982741484648</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5539227135193227</v>
+        <v>-0.4198247837756374</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1909574935514284</v>
+        <v>-0.07815629640706817</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0529929030685156</v>
+        <v>0.03344740691830319</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04415211724346395</v>
+        <v>0.04349513812102593</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05089002695868025</v>
+        <v>0.04985781152054602</v>
       </c>
       <c r="L26" t="n">
         <v>-0.005541729765706893</v>
@@ -1532,28 +1532,28 @@
         <v>0.9599310885968813</v>
       </c>
       <c r="D27" t="n">
-        <v>58.35158694303924</v>
+        <v>56.46117948366691</v>
       </c>
       <c r="E27" t="n">
-        <v>57.04770848498313</v>
+        <v>57.39996930677049</v>
       </c>
       <c r="F27" t="n">
-        <v>49.40384404366016</v>
+        <v>49.93498625861717</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.4311960006786759</v>
+        <v>-0.3426602017227707</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1830136928760714</v>
+        <v>-0.1384559433943459</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04724507661739293</v>
+        <v>-0.04116478091981014</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04771296861998992</v>
+        <v>0.04873666448175008</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05505108419946612</v>
+        <v>0.05586166325361304</v>
       </c>
       <c r="L27" t="n">
         <v>-0.02132265487508795</v>
@@ -1573,28 +1573,28 @@
         <v>0.8726646259971648</v>
       </c>
       <c r="D28" t="n">
-        <v>56.74534458313234</v>
+        <v>55.19661597602403</v>
       </c>
       <c r="E28" t="n">
-        <v>57.17713677916987</v>
+        <v>52.84116660785616</v>
       </c>
       <c r="F28" t="n">
-        <v>47.62582861044719</v>
+        <v>44.53312403586647</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3921258977096629</v>
+        <v>-0.3349105608170901</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.1440452351666821</v>
+        <v>-0.1664734659352833</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.03530283471996658</v>
+        <v>0.03297606177170838</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0471655463171208</v>
+        <v>0.04596025427099248</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05638976538420938</v>
+        <v>0.0538164700155487</v>
       </c>
       <c r="L28" t="n">
         <v>0.008049448887795437</v>
@@ -1614,28 +1614,28 @@
         <v>0.7853981633974483</v>
       </c>
       <c r="D29" t="n">
-        <v>55.22922235616953</v>
+        <v>52.02597705747774</v>
       </c>
       <c r="E29" t="n">
-        <v>51.33596149724935</v>
+        <v>45.93983406475821</v>
       </c>
       <c r="F29" t="n">
-        <v>40.53810031195495</v>
+        <v>36.56758626757752</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3291079656762638</v>
+        <v>-0.2040088705152409</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05547664209184753</v>
+        <v>0.006087377542774026</v>
       </c>
       <c r="I29" t="n">
-        <v>0.150116593378274</v>
+        <v>0.2425819962853359</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04134919109142772</v>
+        <v>0.039050640668845</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05206844663497114</v>
+        <v>0.04813946622768674</v>
       </c>
       <c r="L29" t="n">
         <v>-0.01146123825694443</v>
@@ -1655,28 +1655,28 @@
         <v>0.6981317007977318</v>
       </c>
       <c r="D30" t="n">
-        <v>58.51908307083171</v>
+        <v>54.57647709285759</v>
       </c>
       <c r="E30" t="n">
-        <v>44.60810159090126</v>
+        <v>44.73207056446729</v>
       </c>
       <c r="F30" t="n">
-        <v>37.24415953617878</v>
+        <v>37.61297474228601</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4058293999769344</v>
+        <v>-0.2596373566242344</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05127318656966953</v>
+        <v>0.1271991106142639</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2446031229472339</v>
+        <v>0.2487733459191933</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03530720195406466</v>
+        <v>0.03731575010433984</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04174287103321168</v>
+        <v>0.04369828215989154</v>
       </c>
       <c r="L30" t="n">
         <v>-0.009205643101155996</v>
@@ -1696,28 +1696,28 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="D31" t="n">
-        <v>55.37378454160457</v>
+        <v>51.06962045674508</v>
       </c>
       <c r="E31" t="n">
-        <v>46.4203019761869</v>
+        <v>49.67494150180232</v>
       </c>
       <c r="F31" t="n">
-        <v>39.67970129641049</v>
+        <v>42.56432101834704</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3179424071208871</v>
+        <v>-0.2018018647952605</v>
       </c>
       <c r="H31" t="n">
-        <v>0.009141607081501668</v>
+        <v>-0.01888729706506897</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1787257995828611</v>
+        <v>0.1092514233603084</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03935898149218992</v>
+        <v>0.0453121720490247</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04554554450788834</v>
+        <v>0.05227989710568888</v>
       </c>
       <c r="L31" t="n">
         <v>0.001723860633653055</v>
@@ -1737,28 +1737,28 @@
         <v>0.5235987755982988</v>
       </c>
       <c r="D32" t="n">
-        <v>50.29964988564687</v>
+        <v>39.83688067359589</v>
       </c>
       <c r="E32" t="n">
-        <v>45.75983735328264</v>
+        <v>41.24664665995584</v>
       </c>
       <c r="F32" t="n">
-        <v>39.28856894898525</v>
+        <v>35.65703760640854</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1563008437695562</v>
+        <v>0.1308202128783524</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04336053761170584</v>
+        <v>0.1511937356230637</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1893112857395669</v>
+        <v>0.2614660307040699</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04234897355669167</v>
+        <v>0.04650758856732734</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04886148921318483</v>
+        <v>0.05347608113252903</v>
       </c>
       <c r="L32" t="n">
         <v>0.006427565889096903</v>
@@ -1778,28 +1778,28 @@
         <v>0.4363323129985824</v>
       </c>
       <c r="D33" t="n">
-        <v>49.76383205230021</v>
+        <v>41.97388310036273</v>
       </c>
       <c r="E33" t="n">
-        <v>51.64630006200054</v>
+        <v>52.60565531196563</v>
       </c>
       <c r="F33" t="n">
-        <v>44.02303959138935</v>
+        <v>44.58153701134842</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1484275846973007</v>
+        <v>0.06411512965898167</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.08798950102727605</v>
+        <v>0.1086833907077376</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06020641353142096</v>
+        <v>0.1491862775998482</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04824815740150576</v>
+        <v>0.05420838268221114</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05612114597648009</v>
+        <v>0.06299997806646357</v>
       </c>
       <c r="L33" t="n">
         <v>0.002216862666729101</v>
@@ -1819,28 +1819,28 @@
         <v>0.3490658503988659</v>
       </c>
       <c r="D34" t="n">
-        <v>48.07507102141849</v>
+        <v>45.95699664027956</v>
       </c>
       <c r="E34" t="n">
-        <v>57.9069742667948</v>
+        <v>62.89564840353122</v>
       </c>
       <c r="F34" t="n">
-        <v>49.72544784917873</v>
+        <v>54.20189975429512</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.09862622055534702</v>
+        <v>-0.05575910840002938</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.2872442918016015</v>
+        <v>-0.1718360096806471</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.1251246333481739</v>
+        <v>-0.09545947249636186</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05691652709431029</v>
+        <v>0.06322225852781761</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06543378445223186</v>
+        <v>0.07259101119668537</v>
       </c>
       <c r="L34" t="n">
         <v>-0.01995185447621303</v>
@@ -1860,28 +1860,28 @@
         <v>0.2617993877991494</v>
       </c>
       <c r="D35" t="n">
-        <v>42.03181589593035</v>
+        <v>39.34916490871184</v>
       </c>
       <c r="E35" t="n">
-        <v>52.36814180483395</v>
+        <v>50.15147980633444</v>
       </c>
       <c r="F35" t="n">
-        <v>47.13563881320206</v>
+        <v>45.45668097160128</v>
       </c>
       <c r="G35" t="n">
-        <v>0.103024267512714</v>
+        <v>0.1730761537239437</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1744227707346611</v>
+        <v>-0.1399018555565136</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.05723540891418585</v>
+        <v>-0.01396640732499456</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06218850109427965</v>
+        <v>0.06410477797158082</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06800916835653478</v>
+        <v>0.07009800445762689</v>
       </c>
       <c r="L35" t="n">
         <v>0.008154292467731241</v>
@@ -1901,28 +1901,28 @@
         <v>0.1745329251994329</v>
       </c>
       <c r="D36" t="n">
-        <v>34.67838489298369</v>
+        <v>31.6264603315603</v>
       </c>
       <c r="E36" t="n">
-        <v>41.44669174150996</v>
+        <v>39.84751855542307</v>
       </c>
       <c r="F36" t="n">
-        <v>38.25936719921063</v>
+        <v>36.94449568292877</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3385869824733127</v>
+        <v>0.4309728137616855</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1096335807292434</v>
+        <v>0.1369032359877331</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2077357372161205</v>
+        <v>0.2346267936449653</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06249470310666604</v>
+        <v>0.06658165287034688</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06662507822043814</v>
+        <v>0.07122800002670363</v>
       </c>
       <c r="L36" t="n">
         <v>0.02289962574163301</v>
@@ -1942,28 +1942,28 @@
         <v>0.08726646259971647</v>
       </c>
       <c r="D37" t="n">
-        <v>28.66853269749267</v>
+        <v>26.24903305751519</v>
       </c>
       <c r="E37" t="n">
-        <v>31.7947095192795</v>
+        <v>30.8864066296628</v>
       </c>
       <c r="F37" t="n">
-        <v>29.02887626273359</v>
+        <v>28.12431457128489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5137588657142538</v>
+        <v>0.5870736019859032</v>
       </c>
       <c r="H37" t="n">
-        <v>0.402877953532369</v>
+        <v>0.4093595128089788</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4984833787444704</v>
+        <v>0.5060936009871091</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05844470907174727</v>
+        <v>0.06116496819675128</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0627214199651248</v>
+        <v>0.06616276856181401</v>
       </c>
       <c r="L37" t="n">
         <v>0.01257215027087602</v>
@@ -1983,28 +1983,28 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.35266463263872</v>
+        <v>20.02391016744061</v>
       </c>
       <c r="E38" t="n">
-        <v>23.56914267387578</v>
+        <v>19.38230065519355</v>
       </c>
       <c r="F38" t="n">
-        <v>21.76164955025115</v>
+        <v>17.85816767983059</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6196626550144066</v>
+        <v>0.7358156164620017</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6382435393676974</v>
+        <v>0.7305534775494684</v>
       </c>
       <c r="I38" t="n">
-        <v>0.692833382309863</v>
+        <v>0.7749648763926138</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05327370674079537</v>
+        <v>0.05183851110459767</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05587445681160432</v>
+        <v>0.05461350488735445</v>
       </c>
       <c r="L38" t="n">
         <v>0.01521490421811375</v>
@@ -2024,28 +2024,28 @@
         <v>6.19591884457987</v>
       </c>
       <c r="D39" t="n">
-        <v>19.81081858704026</v>
+        <v>15.93914990298962</v>
       </c>
       <c r="E39" t="n">
-        <v>16.92462416478202</v>
+        <v>14.30634819879901</v>
       </c>
       <c r="F39" t="n">
-        <v>16.89592639308641</v>
+        <v>14.01683848015888</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7063434676222407</v>
+        <v>0.8084957327197088</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7773493993304743</v>
+        <v>0.829736417677595</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7823849969356967</v>
+        <v>0.8419396064931366</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05267091300083489</v>
+        <v>0.05215980501027056</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05174090160883815</v>
+        <v>0.05112468608508874</v>
       </c>
       <c r="L39" t="n">
         <v>0.02658247984751917</v>
@@ -2065,28 +2065,28 @@
         <v>6.108652381980153</v>
       </c>
       <c r="D40" t="n">
-        <v>14.93357400097895</v>
+        <v>12.98353749330253</v>
       </c>
       <c r="E40" t="n">
-        <v>12.86258485410558</v>
+        <v>13.0161166330009</v>
       </c>
       <c r="F40" t="n">
-        <v>12.84142473942202</v>
+        <v>12.91654079537451</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7884322773580963</v>
+        <v>0.8554431109483033</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8458541607662289</v>
+        <v>0.8520551421180688</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8474062849794255</v>
+        <v>0.8597265782242958</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05642162895161603</v>
+        <v>0.06150744295351392</v>
       </c>
       <c r="K40" t="n">
-        <v>0.05495746186267842</v>
+        <v>0.05981829399007185</v>
       </c>
       <c r="L40" t="n">
         <v>0.02867325043226641</v>
@@ -2106,28 +2106,28 @@
         <v>6.021385919380437</v>
       </c>
       <c r="D41" t="n">
-        <v>10.88725813210562</v>
+        <v>9.078376818469369</v>
       </c>
       <c r="E41" t="n">
-        <v>11.28259948564543</v>
+        <v>10.70870853825413</v>
       </c>
       <c r="F41" t="n">
-        <v>11.80849217002016</v>
+        <v>11.25908084829851</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8594550853949537</v>
+        <v>0.9291094627902321</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8606256197522264</v>
+        <v>0.9047200918436445</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8507073123955012</v>
+        <v>0.8957304880402781</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06657660007288611</v>
+        <v>0.07376391559612126</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06278052685765821</v>
+        <v>0.06939420923312414</v>
       </c>
       <c r="L41" t="n">
         <v>0.02595235473765648</v>
@@ -2147,28 +2147,28 @@
         <v>5.934119456780721</v>
       </c>
       <c r="D42" t="n">
-        <v>7.960085660315943</v>
+        <v>7.829295659680419</v>
       </c>
       <c r="E42" t="n">
-        <v>9.587535872030688</v>
+        <v>9.933174324296751</v>
       </c>
       <c r="F42" t="n">
-        <v>11.34790094914211</v>
+        <v>11.56621277332411</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9128822937947649</v>
+        <v>0.9465335571463671</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8740595084685586</v>
+        <v>0.9104364591331509</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8361181296485015</v>
+        <v>0.8780962351791147</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07606986758652359</v>
+        <v>0.08263777450997013</v>
       </c>
       <c r="K42" t="n">
-        <v>0.06612825329774712</v>
+        <v>0.07184936490632662</v>
       </c>
       <c r="L42" t="n">
         <v>0.02414142816736758</v>
@@ -2188,28 +2188,28 @@
         <v>5.846852994181003</v>
       </c>
       <c r="D43" t="n">
-        <v>9.428553056213</v>
+        <v>11.6957507612849</v>
       </c>
       <c r="E43" t="n">
-        <v>11.10919760051792</v>
+        <v>11.66079268185384</v>
       </c>
       <c r="F43" t="n">
-        <v>13.14139655579777</v>
+        <v>14.05874339323663</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9167966303981393</v>
+        <v>0.8815628094334952</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8753671996142545</v>
+        <v>0.8953743193921099</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8388234232764521</v>
+        <v>0.8492601827391434</v>
       </c>
       <c r="J43" t="n">
-        <v>0.07786070955975104</v>
+        <v>0.0779707190851445</v>
       </c>
       <c r="K43" t="n">
-        <v>0.06508765331983615</v>
+        <v>0.06500851065136717</v>
       </c>
       <c r="L43" t="n">
         <v>0.04338040408915633</v>
@@ -2229,28 +2229,28 @@
         <v>5.759586531581287</v>
       </c>
       <c r="D44" t="n">
-        <v>9.956078642377458</v>
+        <v>10.82227821775889</v>
       </c>
       <c r="E44" t="n">
-        <v>13.01042738149478</v>
+        <v>11.76648110309534</v>
       </c>
       <c r="F44" t="n">
-        <v>15.12331877519562</v>
+        <v>14.03663963191066</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9038689630150046</v>
+        <v>0.8937865332749645</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8317944110607777</v>
+        <v>0.8859605394335516</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7938558811613742</v>
+        <v>0.8371544434768546</v>
       </c>
       <c r="J44" t="n">
-        <v>0.08423582124288838</v>
+        <v>0.08387282989394645</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0711674952126191</v>
+        <v>0.07047532060495744</v>
       </c>
       <c r="L44" t="n">
         <v>0.03986109626497237</v>
@@ -2270,28 +2270,28 @@
         <v>5.672320068981571</v>
       </c>
       <c r="D45" t="n">
-        <v>8.910854738304046</v>
+        <v>8.48494656322705</v>
       </c>
       <c r="E45" t="n">
-        <v>12.225190914211</v>
+        <v>11.94585863055252</v>
       </c>
       <c r="F45" t="n">
-        <v>13.51433185596645</v>
+        <v>13.52441454074112</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9119695468003477</v>
+        <v>0.9339626575200219</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8473681392558772</v>
+        <v>0.883662070419896</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8211584496108096</v>
+        <v>0.8464270955217301</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09169196845879064</v>
+        <v>0.09908942849282368</v>
       </c>
       <c r="K45" t="n">
-        <v>0.08135146174916068</v>
+        <v>0.08798735435013458</v>
       </c>
       <c r="L45" t="n">
         <v>0.04777574555362582</v>
@@ -2311,28 +2311,28 @@
         <v>5.585053606381854</v>
       </c>
       <c r="D46" t="n">
-        <v>8.227062323605555</v>
+        <v>8.543740041665735</v>
       </c>
       <c r="E46" t="n">
-        <v>10.37092909309436</v>
+        <v>9.960090023653107</v>
       </c>
       <c r="F46" t="n">
-        <v>11.3272299058437</v>
+        <v>11.08696488872226</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9350561685369432</v>
+        <v>0.9264756368359774</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9122065214331296</v>
+        <v>0.919261814353982</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8957840719278993</v>
+        <v>0.8960114626378706</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09151706384398493</v>
+        <v>0.09703864517769283</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08202817150565106</v>
+        <v>0.0870040001587726</v>
       </c>
       <c r="L46" t="n">
         <v>0.03793076092727563</v>
@@ -2352,28 +2352,28 @@
         <v>5.497787143782138</v>
       </c>
       <c r="D47" t="n">
-        <v>10.6320441330998</v>
+        <v>9.520834431536567</v>
       </c>
       <c r="E47" t="n">
-        <v>12.89855558299347</v>
+        <v>11.42272210323101</v>
       </c>
       <c r="F47" t="n">
-        <v>12.99625224882971</v>
+        <v>11.58914938615984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9051813735300687</v>
+        <v>0.9260615769800857</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8804959521637168</v>
+        <v>0.9112504119333749</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8835906895397075</v>
+        <v>0.9095705156253826</v>
       </c>
       <c r="J47" t="n">
-        <v>0.08248239580009949</v>
+        <v>0.08581404161992637</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07774128914318995</v>
+        <v>0.0810534210028743</v>
       </c>
       <c r="L47" t="n">
         <v>0.03775577655456196</v>
@@ -2393,28 +2393,28 @@
         <v>5.410520681182422</v>
       </c>
       <c r="D48" t="n">
-        <v>16.06217629828218</v>
+        <v>12.76186666387827</v>
       </c>
       <c r="E48" t="n">
-        <v>21.50210172886197</v>
+        <v>15.5656549977461</v>
       </c>
       <c r="F48" t="n">
-        <v>20.11477000491699</v>
+        <v>15.09136565358269</v>
       </c>
       <c r="G48" t="n">
-        <v>0.807500059942463</v>
+        <v>0.8811770893282114</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6953958197786766</v>
+        <v>0.8440215911314616</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7351610192199269</v>
+        <v>0.8534139403457922</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07866867041872801</v>
+        <v>0.07894616409439766</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07952453349801655</v>
+        <v>0.07879018262620904</v>
       </c>
       <c r="L48" t="n">
         <v>0.04041139911750024</v>
@@ -2434,28 +2434,28 @@
         <v>5.323254218582705</v>
       </c>
       <c r="D49" t="n">
-        <v>20.3496718107307</v>
+        <v>18.77239225931801</v>
       </c>
       <c r="E49" t="n">
-        <v>26.55729210230894</v>
+        <v>22.04093972561973</v>
       </c>
       <c r="F49" t="n">
-        <v>27.33731574091945</v>
+        <v>23.04353821005866</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7275406693727046</v>
+        <v>0.7703012854213953</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5707065528622318</v>
+        <v>0.7012159720847502</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5487122440805351</v>
+        <v>0.6713850682797191</v>
       </c>
       <c r="J49" t="n">
-        <v>0.07751123200248099</v>
+        <v>0.07644681544332915</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07450613454931981</v>
+        <v>0.07279545890793965</v>
       </c>
       <c r="L49" t="n">
         <v>0.01891170523505476</v>
@@ -2475,28 +2475,28 @@
         <v>5.235987755982989</v>
       </c>
       <c r="D50" t="n">
-        <v>24.46937320591969</v>
+        <v>22.314112130695</v>
       </c>
       <c r="E50" t="n">
-        <v>30.98918961953629</v>
+        <v>23.56463566142497</v>
       </c>
       <c r="F50" t="n">
-        <v>34.2463300248878</v>
+        <v>26.85974935374859</v>
       </c>
       <c r="G50" t="n">
-        <v>0.631057874248604</v>
+        <v>0.6886254830215079</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4794166655821338</v>
+        <v>0.643380585292464</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3693250461815525</v>
+        <v>0.542699028360954</v>
       </c>
       <c r="J50" t="n">
-        <v>0.07586746851573363</v>
+        <v>0.07200770223829535</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06791204964439572</v>
+        <v>0.06308010299161616</v>
       </c>
       <c r="L50" t="n">
         <v>0.01804213321502915</v>
@@ -2516,28 +2516,28 @@
         <v>5.148721293383272</v>
       </c>
       <c r="D51" t="n">
-        <v>29.5361381059827</v>
+        <v>24.80637777097331</v>
       </c>
       <c r="E51" t="n">
-        <v>34.22416495552845</v>
+        <v>23.26606324976314</v>
       </c>
       <c r="F51" t="n">
-        <v>35.87204621598369</v>
+        <v>25.9669822429207</v>
       </c>
       <c r="G51" t="n">
-        <v>0.492357875804359</v>
+        <v>0.6227400484678872</v>
       </c>
       <c r="H51" t="n">
-        <v>0.499352858482347</v>
+        <v>0.6519740263001133</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3725114541960558</v>
+        <v>0.5758735872149439</v>
       </c>
       <c r="J51" t="n">
-        <v>0.06559085340718192</v>
+        <v>0.06096452716518264</v>
       </c>
       <c r="K51" t="n">
-        <v>0.06028052116237215</v>
+        <v>0.05450826394972601</v>
       </c>
       <c r="L51" t="n">
         <v>0.0233201517377481</v>
@@ -2557,28 +2557,28 @@
         <v>5.061454830783555</v>
       </c>
       <c r="D52" t="n">
-        <v>37.04961561654403</v>
+        <v>33.41400800286513</v>
       </c>
       <c r="E52" t="n">
-        <v>35.47515952069659</v>
+        <v>23.90629191834476</v>
       </c>
       <c r="F52" t="n">
-        <v>34.94157353550206</v>
+        <v>24.72750675355076</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2632449672286217</v>
+        <v>0.3746459275164415</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4533792725108998</v>
+        <v>0.643504598209288</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4077455832544346</v>
+        <v>0.6154697517468942</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05153640914438832</v>
+        <v>0.04368218911983538</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05118674437280055</v>
+        <v>0.04235957606751113</v>
       </c>
       <c r="L52" t="n">
         <v>-0.002627051412727268</v>
@@ -2598,28 +2598,28 @@
         <v>4.974188368183839</v>
       </c>
       <c r="D53" t="n">
-        <v>46.17808039402477</v>
+        <v>46.89615144069283</v>
       </c>
       <c r="E53" t="n">
-        <v>41.3190710581961</v>
+        <v>31.73131405967211</v>
       </c>
       <c r="F53" t="n">
-        <v>39.27008623516493</v>
+        <v>29.9077741448029</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03638999754483258</v>
+        <v>-0.05602843053586046</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2867982294762164</v>
+        <v>0.4152350848445525</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3365548673863321</v>
+        <v>0.4758067557544076</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04605010018492748</v>
+        <v>0.03756378353409678</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04827744509784667</v>
+        <v>0.03974301896949154</v>
       </c>
       <c r="L53" t="n">
         <v>0.0004245748590547656</v>
@@ -2639,28 +2639,28 @@
         <v>4.886921905584122</v>
       </c>
       <c r="D54" t="n">
-        <v>54.0626413666718</v>
+        <v>52.56712235300187</v>
       </c>
       <c r="E54" t="n">
-        <v>47.46095254978412</v>
+        <v>41.99542092782937</v>
       </c>
       <c r="F54" t="n">
-        <v>44.61599415844208</v>
+        <v>39.08731144051234</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2973802131664852</v>
+        <v>-0.2404298289965318</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0818332030833151</v>
+        <v>0.1080683771515011</v>
       </c>
       <c r="I54" t="n">
-        <v>0.173848484436386</v>
+        <v>0.1926944175925001</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04500540209073847</v>
+        <v>0.04334461406737027</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04805421229421997</v>
+        <v>0.0468507346968898</v>
       </c>
       <c r="L54" t="n">
         <v>0.001986570640872591</v>
@@ -2680,28 +2680,28 @@
         <v>4.799655442984406</v>
       </c>
       <c r="D55" t="n">
-        <v>61.92302302279947</v>
+        <v>60.95803514602715</v>
       </c>
       <c r="E55" t="n">
-        <v>49.00639149091327</v>
+        <v>45.32243995573907</v>
       </c>
       <c r="F55" t="n">
-        <v>45.21871398740434</v>
+        <v>41.99095565161235</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.5355644755622255</v>
+        <v>-0.4937846924650666</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000566121047749669</v>
+        <v>0.005435728345734203</v>
       </c>
       <c r="I55" t="n">
-        <v>0.09579818672771469</v>
+        <v>0.09630560472932194</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04054362032022344</v>
+        <v>0.04037851289845152</v>
       </c>
       <c r="K55" t="n">
-        <v>0.04410537922099711</v>
+        <v>0.04379054841859848</v>
       </c>
       <c r="L55" t="n">
         <v>-0.01555524853598619</v>
@@ -2721,28 +2721,28 @@
         <v>4.71238898038469</v>
       </c>
       <c r="D56" t="n">
-        <v>69.51722224632816</v>
+        <v>71.84486768906544</v>
       </c>
       <c r="E56" t="n">
-        <v>49.57019102223907</v>
+        <v>37.95667240046571</v>
       </c>
       <c r="F56" t="n">
-        <v>44.80906267379505</v>
+        <v>35.07693383833691</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.7150240384916235</v>
+        <v>-0.754177169576271</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1081465068341513</v>
+        <v>0.2291611465146918</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1721757923233723</v>
+        <v>0.3205325089180168</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03552735829223551</v>
+        <v>0.02862159746799276</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03933423879239314</v>
+        <v>0.03098562492823172</v>
       </c>
       <c r="L56" t="n">
         <v>-0.01391758271892143</v>
@@ -2762,28 +2762,28 @@
         <v>4.625122517784973</v>
       </c>
       <c r="D57" t="n">
-        <v>73.08642603836766</v>
+        <v>71.09955728335197</v>
       </c>
       <c r="E57" t="n">
-        <v>53.94447591763502</v>
+        <v>38.9657971681733</v>
       </c>
       <c r="F57" t="n">
-        <v>48.43373759917911</v>
+        <v>35.81164846071444</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.7763384161308226</v>
+        <v>-0.7264023704509761</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1336771305136599</v>
+        <v>0.2263002764951451</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2030525524070914</v>
+        <v>0.3214727952615579</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03613265509717842</v>
+        <v>0.02934777921563832</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04034472407147469</v>
+        <v>0.03213411092128046</v>
       </c>
       <c r="L57" t="n">
         <v>-0.007209260325840854</v>
@@ -2803,28 +2803,28 @@
         <v>4.537856055185257</v>
       </c>
       <c r="D58" t="n">
-        <v>74.93105525413529</v>
+        <v>71.6576141034042</v>
       </c>
       <c r="E58" t="n">
-        <v>61.9961309231754</v>
+        <v>55.93894773945474</v>
       </c>
       <c r="F58" t="n">
-        <v>55.91868862493653</v>
+        <v>50.76899594570278</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.8089026123949572</v>
+        <v>-0.7401036253547011</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.0007228334680297227</v>
+        <v>-0.1246180403554675</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1028755944625414</v>
+        <v>-0.01518008637218073</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0405889554696096</v>
+        <v>0.03999501717228528</v>
       </c>
       <c r="K58" t="n">
-        <v>0.04527808433253298</v>
+        <v>0.04443577467526345</v>
       </c>
       <c r="L58" t="n">
         <v>-0.01331041050872216</v>
@@ -2844,28 +2844,28 @@
         <v>4.450589592585541</v>
       </c>
       <c r="D59" t="n">
-        <v>78.01904768328939</v>
+        <v>74.92040251174079</v>
       </c>
       <c r="E59" t="n">
-        <v>65.20204333352423</v>
+        <v>59.29512332618759</v>
       </c>
       <c r="F59" t="n">
-        <v>58.88737754335618</v>
+        <v>53.92258568092583</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.8742944573276029</v>
+        <v>-0.8001363611946238</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.1709148064257494</v>
+        <v>-0.2372321951637653</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.07911653259363004</v>
+        <v>-0.1297094065391116</v>
       </c>
       <c r="J59" t="n">
-        <v>0.04193498919247277</v>
+        <v>0.04056127263967824</v>
       </c>
       <c r="K59" t="n">
-        <v>0.04658039177149647</v>
+        <v>0.04477873187881298</v>
       </c>
       <c r="L59" t="n">
         <v>-0.01715806920863183</v>
@@ -2885,28 +2885,28 @@
         <v>4.363323129985824</v>
       </c>
       <c r="D60" t="n">
-        <v>80.64965956173296</v>
+        <v>77.86300543013608</v>
       </c>
       <c r="E60" t="n">
-        <v>64.73453683718476</v>
+        <v>53.58888040002081</v>
       </c>
       <c r="F60" t="n">
-        <v>61.42066577428938</v>
+        <v>50.96259511934385</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.931559667739487</v>
+        <v>-0.8907018550263256</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3385556279190237</v>
+        <v>-0.2172053085613188</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.2203520744210911</v>
+        <v>-0.1045649577944169</v>
       </c>
       <c r="J60" t="n">
-        <v>0.04377702716189329</v>
+        <v>0.03806054670801895</v>
       </c>
       <c r="K60" t="n">
-        <v>0.04615437935948893</v>
+        <v>0.04007228229532969</v>
       </c>
       <c r="L60" t="n">
         <v>-0.02045836306382089</v>
@@ -2926,28 +2926,28 @@
         <v>4.276056667386108</v>
       </c>
       <c r="D61" t="n">
-        <v>82.52014651167904</v>
+        <v>79.70311722521966</v>
       </c>
       <c r="E61" t="n">
-        <v>68.40149473485786</v>
+        <v>63.48378572470779</v>
       </c>
       <c r="F61" t="n">
-        <v>64.74702308905803</v>
+        <v>60.28746917030774</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.9412647811505261</v>
+        <v>-0.903128354592914</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.5327247420551323</v>
+        <v>-0.4940747697800454</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.4477562775669129</v>
+        <v>-0.3917255536337512</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04578246514651218</v>
+        <v>0.0440915383747613</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0483937393219159</v>
+        <v>0.04649196435020674</v>
       </c>
       <c r="L61" t="n">
         <v>-0.02825180687429539</v>
@@ -2967,28 +2967,28 @@
         <v>4.188790204786391</v>
       </c>
       <c r="D62" t="n">
-        <v>80.19789245970074</v>
+        <v>77.67669069564205</v>
       </c>
       <c r="E62" t="n">
-        <v>69.57439358002</v>
+        <v>66.7509090901717</v>
       </c>
       <c r="F62" t="n">
-        <v>63.62301949747611</v>
+        <v>61.56507414766242</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.9011623410211584</v>
+        <v>-0.8741227635318299</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.6400116646785445</v>
+        <v>-0.5365837064774966</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.5539070922507867</v>
+        <v>-0.4358574864358912</v>
       </c>
       <c r="J62" t="n">
-        <v>0.04588847369556697</v>
+        <v>0.0457138404974104</v>
       </c>
       <c r="K62" t="n">
-        <v>0.05042113731483807</v>
+        <v>0.04972685413274649</v>
       </c>
       <c r="L62" t="n">
         <v>-0.003796567205952805</v>
@@ -3008,28 +3008,28 @@
         <v>4.101523742186675</v>
       </c>
       <c r="D63" t="n">
-        <v>74.10459909595471</v>
+        <v>72.08701060395833</v>
       </c>
       <c r="E63" t="n">
-        <v>67.36733673196584</v>
+        <v>62.06255279722069</v>
       </c>
       <c r="F63" t="n">
-        <v>59.70365048972519</v>
+        <v>56.07387137486027</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.8151679068181004</v>
+        <v>-0.7486376405376903</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.5622498254826541</v>
+        <v>-0.4356888771900653</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.4398714008707495</v>
+        <v>-0.2957490383231619</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04629292072577895</v>
+        <v>0.04440781388317245</v>
       </c>
       <c r="K63" t="n">
-        <v>0.05255308023605967</v>
+        <v>0.04948388979051953</v>
       </c>
       <c r="L63" t="n">
         <v>-0.01842776192107343</v>
@@ -3049,28 +3049,28 @@
         <v>4.014257279586958</v>
       </c>
       <c r="D64" t="n">
-        <v>70.65457026464708</v>
+        <v>72.21897149776754</v>
       </c>
       <c r="E64" t="n">
-        <v>68.92974402324279</v>
+        <v>71.88478583179274</v>
       </c>
       <c r="F64" t="n">
-        <v>60.07720762177357</v>
+        <v>63.07866504256739</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.7668171541418014</v>
+        <v>-0.7782128621937353</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.565786581939183</v>
+        <v>-0.5581654646621339</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.4349932446399931</v>
+        <v>-0.4715676791047353</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0482871742200326</v>
+        <v>0.05009489802557057</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05543691527448585</v>
+        <v>0.05717949302131143</v>
       </c>
       <c r="L64" t="n">
         <v>-0.01959041709208677</v>
@@ -3090,28 +3090,28 @@
         <v>3.926990816987241</v>
       </c>
       <c r="D65" t="n">
-        <v>68.73603637515326</v>
+        <v>69.19358305886335</v>
       </c>
       <c r="E65" t="n">
-        <v>63.6008848711229</v>
+        <v>64.83854408116673</v>
       </c>
       <c r="F65" t="n">
-        <v>54.31856297121502</v>
+        <v>55.10937018759424</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6993923706016685</v>
+        <v>-0.6900529229991084</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.512969150211624</v>
+        <v>-0.4196217228762414</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.3060865644351996</v>
+        <v>-0.28197548303262</v>
       </c>
       <c r="J65" t="n">
-        <v>0.04430736422717454</v>
+        <v>0.04555602883086246</v>
       </c>
       <c r="K65" t="n">
-        <v>0.05158092047784375</v>
+        <v>0.05331671495687786</v>
       </c>
       <c r="L65" t="n">
         <v>-0.01317985867797656</v>
@@ -3131,28 +3131,28 @@
         <v>3.839724354387525</v>
       </c>
       <c r="D66" t="n">
-        <v>61.83323683905667</v>
+        <v>59.02995522435292</v>
       </c>
       <c r="E66" t="n">
-        <v>57.72691150977199</v>
+        <v>54.92128027861444</v>
       </c>
       <c r="F66" t="n">
-        <v>50.96209784923403</v>
+        <v>48.35334037954243</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5222717367960567</v>
+        <v>-0.4366933432771623</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.3781432993508335</v>
+        <v>-0.2742315083990857</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.2075347226526303</v>
+        <v>-0.1242288889312071</v>
       </c>
       <c r="J66" t="n">
-        <v>0.04583297554048118</v>
+        <v>0.04621466319571637</v>
       </c>
       <c r="K66" t="n">
-        <v>0.05169616228963938</v>
+        <v>0.05214312596409088</v>
       </c>
       <c r="L66" t="n">
         <v>0.003705611956227418</v>
@@ -3172,28 +3172,28 @@
         <v>3.752457891787809</v>
       </c>
       <c r="D67" t="n">
-        <v>55.00286523618747</v>
+        <v>54.30527770153336</v>
       </c>
       <c r="E67" t="n">
-        <v>54.58116549324264</v>
+        <v>64.11348999415505</v>
       </c>
       <c r="F67" t="n">
-        <v>48.58184307604025</v>
+        <v>56.84532421544515</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3246086162800125</v>
+        <v>-0.3236627802072255</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.301809252019838</v>
+        <v>-0.4440131599384613</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1367168538384636</v>
+        <v>-0.3416685066650599</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0488947608294435</v>
+        <v>0.05790659655101991</v>
       </c>
       <c r="K67" t="n">
-        <v>0.05454341335957691</v>
+        <v>0.06463365136972693</v>
       </c>
       <c r="L67" t="n">
         <v>-0.01349132848052971</v>
@@ -3213,28 +3213,28 @@
         <v>3.665191429188092</v>
       </c>
       <c r="D68" t="n">
-        <v>43.95686846030138</v>
+        <v>41.57986440263885</v>
       </c>
       <c r="E68" t="n">
-        <v>43.42272002845256</v>
+        <v>47.93058700139113</v>
       </c>
       <c r="F68" t="n">
-        <v>39.28833877663764</v>
+        <v>43.48865644670441</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01686382198821557</v>
+        <v>0.07480562751897675</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01872387741944494</v>
+        <v>-0.1103344642544256</v>
       </c>
       <c r="I68" t="n">
-        <v>0.153508812222635</v>
+        <v>0.02107652208902007</v>
       </c>
       <c r="J68" t="n">
-        <v>0.04912023009010516</v>
+        <v>0.0582047460300313</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05381450897650644</v>
+        <v>0.0637052158187506</v>
       </c>
       <c r="L68" t="n">
         <v>-0.006872786704574262</v>
@@ -3254,28 +3254,28 @@
         <v>3.577924966588375</v>
       </c>
       <c r="D69" t="n">
-        <v>36.34691284526163</v>
+        <v>30.71924792415625</v>
       </c>
       <c r="E69" t="n">
-        <v>33.11508758845249</v>
+        <v>35.53621671747122</v>
       </c>
       <c r="F69" t="n">
-        <v>31.75231130990652</v>
+        <v>34.44864988678123</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2621409055420132</v>
+        <v>0.3917158271111014</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3233913227404072</v>
+        <v>0.2310245278730837</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3621609003834649</v>
+        <v>0.25666608411133</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04879314766817216</v>
+        <v>0.05880648958977536</v>
       </c>
       <c r="K69" t="n">
-        <v>0.05038127457834186</v>
+        <v>0.06120618380377051</v>
       </c>
       <c r="L69" t="n">
         <v>0.02064101489960841</v>
@@ -3295,28 +3295,28 @@
         <v>3.490658503988659</v>
       </c>
       <c r="D70" t="n">
-        <v>33.65443875107113</v>
+        <v>28.47137581604389</v>
       </c>
       <c r="E70" t="n">
-        <v>29.19276435478972</v>
+        <v>28.8647583225933</v>
       </c>
       <c r="F70" t="n">
-        <v>29.33322669589025</v>
+        <v>29.30377773306821</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3359288112065335</v>
+        <v>0.4735969658613766</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4482661197227424</v>
+        <v>0.4316748930412403</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4442021638837167</v>
+        <v>0.4167750642137532</v>
       </c>
       <c r="J70" t="n">
-        <v>0.05074818651118884</v>
+        <v>0.0563891027338137</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04954715064107275</v>
+        <v>0.05501580788813824</v>
       </c>
       <c r="L70" t="n">
         <v>0.01366020707959381</v>
@@ -3336,28 +3336,28 @@
         <v>3.403392041388943</v>
       </c>
       <c r="D71" t="n">
-        <v>26.81194726961771</v>
+        <v>22.83071067615427</v>
       </c>
       <c r="E71" t="n">
-        <v>24.42915136033574</v>
+        <v>22.52957295399238</v>
       </c>
       <c r="F71" t="n">
-        <v>24.67611195322236</v>
+        <v>22.83713444730571</v>
       </c>
       <c r="G71" t="n">
-        <v>0.512683018623693</v>
+        <v>0.6154599695689082</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5748307144004963</v>
+        <v>0.6026737205398305</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5669224619828106</v>
+        <v>0.5939884637598287</v>
       </c>
       <c r="J71" t="n">
-        <v>0.04999404391244554</v>
+        <v>0.05389486617552252</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04937966589293521</v>
+        <v>0.05305702696879426</v>
       </c>
       <c r="L71" t="n">
         <v>0.01269741774653689</v>
@@ -3377,28 +3377,28 @@
         <v>3.316125578789226</v>
       </c>
       <c r="D72" t="n">
-        <v>18.50197438200335</v>
+        <v>14.90171895225748</v>
       </c>
       <c r="E72" t="n">
-        <v>16.41281373967505</v>
+        <v>14.36053176102758</v>
       </c>
       <c r="F72" t="n">
-        <v>16.17858457435862</v>
+        <v>14.30003758375238</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7101619800499543</v>
+        <v>0.7997315371422458</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7514587130265995</v>
+        <v>0.7824106768978931</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7537871383468424</v>
+        <v>0.7814408830443517</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0453968774911121</v>
+        <v>0.04891636669392292</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04662224948239747</v>
+        <v>0.04999580407287159</v>
       </c>
       <c r="L72" t="n">
         <v>0.004839744429141384</v>
@@ -3418,28 +3418,28 @@
         <v>3.22885911618951</v>
       </c>
       <c r="D73" t="n">
-        <v>13.29008081477302</v>
+        <v>13.21766809618209</v>
       </c>
       <c r="E73" t="n">
-        <v>10.47769934065212</v>
+        <v>10.60892659534786</v>
       </c>
       <c r="F73" t="n">
-        <v>10.35650608397261</v>
+        <v>10.57830380581104</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8052269212220619</v>
+        <v>0.856890076669495</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8627740009380617</v>
+        <v>0.906342177220592</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8649901806194082</v>
+        <v>0.904554606615055</v>
       </c>
       <c r="J73" t="n">
-        <v>0.04361265593290256</v>
+        <v>0.04811476712065106</v>
       </c>
       <c r="K73" t="n">
-        <v>0.04438129502535139</v>
+        <v>0.04876833711226791</v>
       </c>
       <c r="L73" t="n">
         <v>0.02864429348331553</v>
